--- a/DataTest/SampleTestData.xlsx
+++ b/DataTest/SampleTestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22C6E1-B738-4961-9E50-491BAF609C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid" sheetId="2" r:id="rId1"/>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -338,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -515,14 +514,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95395E84-CCBB-4D1D-B5C3-E33C54652F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -672,16 +671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2469180C-3CCD-49D6-B626-080CCC93AEBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
@@ -769,14 +768,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{F7484891-5E86-4163-9FD6-1900CAC09A32}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4791DAE-0403-4E84-9B62-81C201A9EFD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -857,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
